--- a/Data/t18.2.xlsx
+++ b/Data/t18.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,7 +1998,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2008,17 +2008,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.537935231570589</v>
+        <v>2.323793599616808</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>20.90425708125331</v>
+        <v>37.57924715273676</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9967423834942085</v>
+        <v>3.042754810799485</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2068,17 +2068,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.3863060060343185</v>
+        <v>1.541952179610437</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2088,17 +2088,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>11.75500021192164</v>
+        <v>23.99203614757576</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2108,17 +2108,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>45.04109366583153</v>
+        <v>77.50078208415611</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>80.6213345801056</v>
+        <v>145.9805659744954</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.683319449420817</v>
+        <v>1.537935231570589</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21.42653658708413</v>
+        <v>20.90425708125331</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.090805498978828</v>
+        <v>0.9967423834942085</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.4366845934450127</v>
+        <v>0.3863060060343185</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>12.39568175832918</v>
+        <v>11.75500021192164</v>
       </c>
     </row>
     <row r="91">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>46.47701170898164</v>
+        <v>45.04109366583153</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>83.51003959623961</v>
+        <v>80.6213345801056</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.828801808693998</v>
+        <v>1.683319449420817</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>22.12039389688297</v>
+        <v>21.42653658708413</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.17295564281753</v>
+        <v>1.090805498978828</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.4828757485024546</v>
+        <v>0.4366845934450127</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>12.92593514834556</v>
+        <v>12.39568175832918</v>
       </c>
     </row>
     <row r="98">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>48.19928786637747</v>
+        <v>46.47701170898164</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>86.73025011161998</v>
+        <v>83.51003959623961</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.852110781158352</v>
+        <v>1.828801808693998</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21.70408736488951</v>
+        <v>22.12039389688297</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.232352241234957</v>
+        <v>1.17295564281753</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.5230332186636738</v>
+        <v>0.4828757485024546</v>
       </c>
     </row>
     <row r="104">
@@ -2508,11 +2508,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13.26748989945833</v>
+        <v>12.92593514834556</v>
       </c>
     </row>
     <row r="105">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>48.86599054234139</v>
+        <v>48.19928786637747</v>
       </c>
     </row>
     <row r="106">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>87.4450640477462</v>
+        <v>86.73025011161998</v>
       </c>
     </row>
     <row r="107">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.806246727959114</v>
+        <v>1.852110781158352</v>
       </c>
     </row>
     <row r="108">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>22.12206914647361</v>
+        <v>21.70408736488951</v>
       </c>
     </row>
     <row r="109">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.287885980586232</v>
+        <v>1.232352241234957</v>
       </c>
     </row>
     <row r="110">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.5878317753713094</v>
+        <v>0.5230332186636738</v>
       </c>
     </row>
     <row r="111">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>13.77129531938058</v>
+        <v>13.26748989945833</v>
       </c>
     </row>
     <row r="112">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>49.99776445794518</v>
+        <v>48.86599054234139</v>
       </c>
     </row>
     <row r="113">
@@ -2688,11 +2688,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>89.57309340771603</v>
+        <v>87.4450640477462</v>
       </c>
     </row>
     <row r="114">
@@ -2708,11 +2708,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1.892202935079598</v>
+        <v>1.806246727959114</v>
       </c>
     </row>
     <row r="115">
@@ -2728,11 +2728,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>22.76313043998378</v>
+        <v>22.12206914647361</v>
       </c>
     </row>
     <row r="116">
@@ -2748,11 +2748,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1.408521847741836</v>
+        <v>1.287885980586232</v>
       </c>
     </row>
     <row r="117">
@@ -2768,11 +2768,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.6803426283432263</v>
+        <v>0.5878317753713094</v>
       </c>
     </row>
     <row r="118">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>14.87895154381879</v>
+        <v>13.77129531938058</v>
       </c>
     </row>
     <row r="119">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>51.73970254038343</v>
+        <v>49.99776445794518</v>
       </c>
     </row>
     <row r="120">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>93.36285193535066</v>
+        <v>89.57309340771603</v>
       </c>
     </row>
     <row r="121">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.890389807891999</v>
+        <v>1.892202935079598</v>
       </c>
     </row>
     <row r="122">
@@ -2868,11 +2868,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>23.52504669597564</v>
+        <v>22.76313043998378</v>
       </c>
     </row>
     <row r="123">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.478133316702131</v>
+        <v>1.408521847741836</v>
       </c>
     </row>
     <row r="124">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.7381857684126257</v>
+        <v>0.6803426283432263</v>
       </c>
     </row>
     <row r="125">
@@ -2928,11 +2928,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>15.72388540115199</v>
+        <v>14.87895154381879</v>
       </c>
     </row>
     <row r="126">
@@ -2948,11 +2948,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>53.74309514421754</v>
+        <v>51.73970254038343</v>
       </c>
     </row>
     <row r="127">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>97.09873613435192</v>
+        <v>93.36285193535066</v>
       </c>
     </row>
     <row r="128">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1.887101432175069</v>
+        <v>1.890389807891999</v>
       </c>
     </row>
     <row r="129">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>23.96461122363827</v>
+        <v>23.52504669597564</v>
       </c>
     </row>
     <row r="130">
@@ -3028,11 +3028,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1.569956251837383</v>
+        <v>1.478133316702131</v>
       </c>
     </row>
     <row r="131">
@@ -3048,11 +3048,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.823526158887913</v>
+        <v>0.7381857684126257</v>
       </c>
     </row>
     <row r="132">
@@ -3068,11 +3068,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>16.48103627765896</v>
+        <v>15.72388540115199</v>
       </c>
     </row>
     <row r="133">
@@ -3088,11 +3088,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>54.95197318094198</v>
+        <v>53.74309514421754</v>
       </c>
     </row>
     <row r="134">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>99.67820452513958</v>
+        <v>97.09873613435192</v>
       </c>
     </row>
     <row r="135">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.859719526059803</v>
+        <v>1.887101432175069</v>
       </c>
     </row>
     <row r="136">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>23.09398661695632</v>
+        <v>23.96461122363827</v>
       </c>
     </row>
     <row r="137">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.676710575510338</v>
+        <v>1.569956251837383</v>
       </c>
     </row>
     <row r="138">
@@ -3188,11 +3188,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.8383552877551691</v>
+        <v>0.823526158887913</v>
       </c>
     </row>
     <row r="139">
@@ -3208,11 +3208,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>16.65904332715989</v>
+        <v>16.48103627765896</v>
       </c>
     </row>
     <row r="140">
@@ -3228,11 +3228,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>53.59373543281433</v>
+        <v>54.95197318094198</v>
       </c>
     </row>
     <row r="141">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>97.72155076625586</v>
+        <v>99.67820452513958</v>
       </c>
     </row>
     <row r="142">
@@ -3268,11 +3268,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1.935220672901199</v>
+        <v>1.859719526059803</v>
       </c>
     </row>
     <row r="143">
@@ -3288,11 +3288,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>24.15557703719865</v>
+        <v>23.09398661695632</v>
       </c>
     </row>
     <row r="144">
@@ -3308,11 +3308,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1.867591993471856</v>
+        <v>1.676710575510338</v>
       </c>
     </row>
     <row r="145">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.9121201379444718</v>
+        <v>0.8383552877551691</v>
       </c>
     </row>
     <row r="146">
@@ -3348,11 +3348,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>17.95628142284222</v>
+        <v>16.65904332715989</v>
       </c>
     </row>
     <row r="147">
@@ -3368,11 +3368,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>56.31388114020289</v>
+        <v>53.59373543281433</v>
       </c>
     </row>
     <row r="148">
@@ -3388,11 +3388,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>103.1406724045613</v>
+        <v>97.72155076625586</v>
       </c>
     </row>
     <row r="149">
@@ -3408,11 +3408,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1.996502893091446</v>
+        <v>1.935220672901199</v>
       </c>
     </row>
     <row r="150">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>25.07276321228929</v>
+        <v>24.15557703719865</v>
       </c>
     </row>
     <row r="151">
@@ -3448,11 +3448,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2.041368126644063</v>
+        <v>1.867591993471856</v>
       </c>
     </row>
     <row r="152">
@@ -3468,11 +3468,11 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.9853095522516988</v>
+        <v>0.9121201379444718</v>
       </c>
     </row>
     <row r="153">
@@ -3488,11 +3488,11 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>19.39040882425979</v>
+        <v>17.95628142284222</v>
       </c>
     </row>
     <row r="154">
@@ -3508,11 +3508,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>58.63195790964662</v>
+        <v>56.31388114020289</v>
       </c>
     </row>
     <row r="155">
@@ -3528,17 +3528,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>108.1183105181829</v>
+        <v>103.1406724045613</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1.6261454452363</v>
+        <v>1.996502893091446</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3568,17 +3568,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>17.65529340542269</v>
+        <v>25.07276321228929</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3588,17 +3588,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.8827646702711343</v>
+        <v>2.041368126644063</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3608,17 +3608,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.32522908904726</v>
+        <v>0.9853095522516988</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3628,17 +3628,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>12.91624096501975</v>
+        <v>19.39040882425979</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3648,17 +3648,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>44.41700130416865</v>
+        <v>58.63195790964662</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3668,17 +3668,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>77.82267487916577</v>
+        <v>108.1183105181829</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3688,17 +3688,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1.702220063009746</v>
+        <v>1.99918668826086</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>17.52826605423549</v>
+        <v>25.30585624126762</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3728,17 +3728,17 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.874113005329329</v>
+        <v>2.110825120165461</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3748,17 +3748,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.3680475811912964</v>
+        <v>1.006463401478406</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3768,17 +3768,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>13.11169507993993</v>
+        <v>20.31647709230044</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3788,17 +3788,17 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>45.17784059123164</v>
+        <v>60.3946741460523</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3808,11 +3808,11 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>78.76218237493744</v>
+        <v>111.1334826895251</v>
       </c>
     </row>
     <row r="170">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1.731195458800965</v>
+        <v>1.6261454452363</v>
       </c>
     </row>
     <row r="171">
@@ -3848,11 +3848,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>17.94976344125211</v>
+        <v>17.65529340542269</v>
       </c>
     </row>
     <row r="172">
@@ -3868,11 +3868,11 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.8655977294004824</v>
+        <v>0.8827646702711343</v>
       </c>
     </row>
     <row r="173">
@@ -3888,11 +3888,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.410019977084439</v>
+        <v>0.32522908904726</v>
       </c>
     </row>
     <row r="174">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>13.30287036762847</v>
+        <v>12.91624096501975</v>
       </c>
     </row>
     <row r="175">
@@ -3928,11 +3928,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>46.10446853438359</v>
+        <v>44.41700130416865</v>
       </c>
     </row>
     <row r="176">
@@ -3948,11 +3948,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>80.36391550855005</v>
+        <v>77.82267487916577</v>
       </c>
     </row>
     <row r="177">
@@ -3968,11 +3968,11 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1.714293190150754</v>
+        <v>1.702220063009746</v>
       </c>
     </row>
     <row r="178">
@@ -3988,11 +3988,11 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>17.90985253920656</v>
+        <v>17.52826605423549</v>
       </c>
     </row>
     <row r="179">
@@ -4008,11 +4008,11 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.9473725524517325</v>
+        <v>0.874113005329329</v>
       </c>
     </row>
     <row r="180">
@@ -4028,11 +4028,11 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.4962427655699551</v>
+        <v>0.3680475811912964</v>
       </c>
     </row>
     <row r="181">
@@ -4048,11 +4048,11 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>13.30832871301243</v>
+        <v>13.11169507993993</v>
       </c>
     </row>
     <row r="182">
@@ -4068,11 +4068,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>45.87989932587676</v>
+        <v>45.17784059123164</v>
       </c>
     </row>
     <row r="183">
@@ -4088,11 +4088,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>80.2559890862682</v>
+        <v>78.76218237493744</v>
       </c>
     </row>
     <row r="184">
@@ -4108,11 +4108,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1.743303479633745</v>
+        <v>1.731195458800965</v>
       </c>
     </row>
     <row r="185">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>18.01413595621537</v>
+        <v>17.94976344125211</v>
       </c>
     </row>
     <row r="186">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.9387018736489398</v>
+        <v>0.8655977294004824</v>
       </c>
     </row>
     <row r="187">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.4917009814351589</v>
+        <v>0.410019977084439</v>
       </c>
     </row>
     <row r="188">
@@ -4188,11 +4188,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.41002676641343</v>
+        <v>13.30287036762847</v>
       </c>
     </row>
     <row r="189">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>46.17519216568356</v>
+        <v>46.10446853438359</v>
       </c>
     </row>
     <row r="190">
@@ -4228,11 +4228,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>80.7730612230302</v>
+        <v>80.36391550855005</v>
       </c>
     </row>
     <row r="191">
@@ -4248,11 +4248,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1.594849698706311</v>
+        <v>1.714293190150754</v>
       </c>
     </row>
     <row r="192">
@@ -4268,11 +4268,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>17.80915496888714</v>
+        <v>17.90985253920656</v>
       </c>
     </row>
     <row r="193">
@@ -4288,11 +4288,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.9303289909120148</v>
+        <v>0.9473725524517325</v>
       </c>
     </row>
     <row r="194">
@@ -4308,11 +4308,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.4873151857158173</v>
+        <v>0.4962427655699551</v>
       </c>
     </row>
     <row r="195">
@@ -4328,11 +4328,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>13.42331829744479</v>
+        <v>13.30832871301243</v>
       </c>
     </row>
     <row r="196">
@@ -4348,11 +4348,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>46.95946335079694</v>
+        <v>45.87989932587676</v>
       </c>
     </row>
     <row r="197">
@@ -4368,11 +4368,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>81.204430492463</v>
+        <v>80.2559890862682</v>
       </c>
     </row>
     <row r="198">
@@ -4388,11 +4388,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1.667904427320626</v>
+        <v>1.743303479633745</v>
       </c>
     </row>
     <row r="199">
@@ -4408,11 +4408,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>18.1713798134405</v>
+        <v>18.01413595621537</v>
       </c>
     </row>
     <row r="200">
@@ -4428,11 +4428,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1.05341332251829</v>
+        <v>0.9387018736489398</v>
       </c>
     </row>
     <row r="201">
@@ -4448,11 +4448,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.5705988830307404</v>
+        <v>0.4917009814351589</v>
       </c>
     </row>
     <row r="202">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.69437319273777</v>
+        <v>13.41002676641343</v>
       </c>
     </row>
     <row r="203">
@@ -4488,11 +4488,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>48.10587506166857</v>
+        <v>46.17519216568356</v>
       </c>
     </row>
     <row r="204">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>83.26354470071649</v>
+        <v>80.7730612230302</v>
       </c>
     </row>
     <row r="205">
@@ -4528,11 +4528,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1.696462050143938</v>
+        <v>1.594849698706311</v>
       </c>
     </row>
     <row r="206">
@@ -4548,11 +4548,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>18.31309033616918</v>
+        <v>17.80915496888714</v>
       </c>
     </row>
     <row r="207">
@@ -4568,11 +4568,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1.174473727022727</v>
+        <v>0.9303289909120148</v>
       </c>
     </row>
     <row r="208">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.6524854039015148</v>
+        <v>0.4873151857158173</v>
       </c>
     </row>
     <row r="209">
@@ -4608,11 +4608,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>14.9201662358813</v>
+        <v>13.42331829744479</v>
       </c>
     </row>
     <row r="210">
@@ -4628,11 +4628,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>46.41346173086108</v>
+        <v>46.95946335079694</v>
       </c>
     </row>
     <row r="211">
@@ -4648,11 +4648,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>83.17013948397974</v>
+        <v>81.204430492463</v>
       </c>
     </row>
     <row r="212">
@@ -4668,11 +4668,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1.724857613004046</v>
+        <v>1.667904427320626</v>
       </c>
     </row>
     <row r="213">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>18.4559764591433</v>
+        <v>18.1713798134405</v>
       </c>
     </row>
     <row r="214">
@@ -4708,11 +4708,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1.250521769427934</v>
+        <v>1.05341332251829</v>
       </c>
     </row>
     <row r="215">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.6037001645514163</v>
+        <v>0.5705988830307404</v>
       </c>
     </row>
     <row r="216">
@@ -4748,11 +4748,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>15.95493292028743</v>
+        <v>13.69437319273777</v>
       </c>
     </row>
     <row r="217">
@@ -4768,11 +4768,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>47.34734147696108</v>
+        <v>48.10587506166857</v>
       </c>
     </row>
     <row r="218">
@@ -4788,11 +4788,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>85.3373304033752</v>
+        <v>83.26354470071649</v>
       </c>
     </row>
     <row r="219">
@@ -4808,11 +4808,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1.66760166383887</v>
+        <v>1.696462050143938</v>
       </c>
     </row>
     <row r="220">
@@ -4828,11 +4828,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>18.38637731924908</v>
+        <v>18.31309033616918</v>
       </c>
     </row>
     <row r="221">
@@ -4848,11 +4848,11 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1.325529527666794</v>
+        <v>1.174473727022727</v>
       </c>
     </row>
     <row r="222">
@@ -4868,11 +4868,11 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.7696623063871709</v>
+        <v>0.6524854039015148</v>
       </c>
     </row>
     <row r="223">
@@ -4888,11 +4888,11 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>16.6760166383887</v>
+        <v>14.9201662358813</v>
       </c>
     </row>
     <row r="224">
@@ -4908,11 +4908,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>48.10389414919818</v>
+        <v>46.41346173086108</v>
       </c>
     </row>
     <row r="225">
@@ -4928,11 +4928,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>86.92908160472879</v>
+        <v>83.17013948397974</v>
       </c>
     </row>
     <row r="226">
@@ -4948,11 +4948,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1.654056254877345</v>
+        <v>1.724857613004046</v>
       </c>
     </row>
     <row r="227">
@@ -4968,11 +4968,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>18.15220710480779</v>
+        <v>18.4559764591433</v>
       </c>
     </row>
     <row r="228">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1.48440945950531</v>
+        <v>1.250521769427934</v>
       </c>
     </row>
     <row r="229">
@@ -5008,11 +5008,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.7634105791741594</v>
+        <v>0.6037001645514163</v>
       </c>
     </row>
     <row r="230">
@@ -5028,11 +5028,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>17.26156142910461</v>
+        <v>15.95493292028743</v>
       </c>
     </row>
     <row r="231">
@@ -5048,11 +5048,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>48.26451328334408</v>
+        <v>47.34734147696108</v>
       </c>
     </row>
     <row r="232">
@@ -5068,11 +5068,431 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>85.3373304033752</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Mamógrafo</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1.66760166383887</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Raio X</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>18.38637731924908</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Tomógrafo Computadorizado</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1.325529527666794</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Ressonância Magnética</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.7696623063871709</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Ultrassom</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>16.6760166383887</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Equipo Odontológico Completo</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>48.10389414919818</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>86.92908160472879</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Mamógrafo</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D240" t="n">
+        <v>1.654056254877345</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Raio X</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>18.15220710480779</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Tomógrafo Computadorizado</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>1.48440945950531</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Ressonância Magnética</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.7634105791741594</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Ultrassom</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>17.26156142910461</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Equipo Odontológico Completo</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>48.26451328334408</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
         <v>87.58015811081329</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Mamógrafo</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1.809423900469903</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Raio X</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>18.72543338858388</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Tomógrafo Computadorizado</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1.430707270138993</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Ressonância Magnética</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.7574332606618199</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Ultrassom</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>18.220477881476</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Equipo Odontológico Completo</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>48.72820643591042</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>89.67168213724102</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t18.2.xlsx
+++ b/Data/t18.2.xlsx
@@ -2151,9 +2151,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>1.537935231570589</v>
-      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2171,9 +2169,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>20.90425708125331</v>
-      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2191,9 +2187,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0.9967423834942085</v>
-      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2211,9 +2205,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>0.3863060060343185</v>
-      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2231,9 +2223,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>11.75500021192164</v>
-      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2251,9 +2241,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>45.04109366583153</v>
-      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2271,9 +2259,7 @@
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>80.6213345801056</v>
-      </c>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2291,9 +2277,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1.683319449420817</v>
-      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2311,9 +2295,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>21.42653658708413</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2331,9 +2313,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>1.090805498978828</v>
-      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2351,9 +2331,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>0.4366845934450127</v>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2371,9 +2349,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>12.39568175832918</v>
-      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2391,9 +2367,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>46.47701170898164</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2411,9 +2385,7 @@
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>83.51003959623961</v>
-      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2431,9 +2403,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>1.828801808693998</v>
-      </c>
+      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2451,9 +2421,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>22.12039389688297</v>
-      </c>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2471,9 +2439,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>1.17295564281753</v>
-      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2491,9 +2457,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>0.4828757485024546</v>
-      </c>
+      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2511,9 +2475,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>12.92593514834556</v>
-      </c>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2531,9 +2493,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>48.19928786637747</v>
-      </c>
+      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2551,9 +2511,7 @@
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>86.73025011161998</v>
-      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2571,9 +2529,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>1.852110781158352</v>
-      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2591,9 +2547,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>21.70408736488951</v>
-      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2611,9 +2565,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>1.232352241234957</v>
-      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2631,9 +2583,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>0.5230332186636738</v>
-      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2651,9 +2601,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>13.26748989945833</v>
-      </c>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2671,9 +2619,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>48.86599054234139</v>
-      </c>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2691,9 +2637,7 @@
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>87.4450640477462</v>
-      </c>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2711,9 +2655,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>1.806246727959114</v>
-      </c>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2731,9 +2673,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>22.12206914647361</v>
-      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2751,9 +2691,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>1.287885980586232</v>
-      </c>
+      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2771,9 +2709,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>0.5878317753713094</v>
-      </c>
+      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2791,9 +2727,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>13.77129531938058</v>
-      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2811,9 +2745,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>49.99776445794518</v>
-      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2831,9 +2763,7 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>89.57309340771603</v>
-      </c>
+      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2851,9 +2781,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>1.892202935079598</v>
-      </c>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2871,9 +2799,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>22.76313043998378</v>
-      </c>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2891,9 +2817,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>1.408521847741836</v>
-      </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2911,9 +2835,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>0.6803426283432263</v>
-      </c>
+      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2931,9 +2853,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>14.87895154381879</v>
-      </c>
+      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2951,9 +2871,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>51.73970254038343</v>
-      </c>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2971,9 +2889,7 @@
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>93.36285193535066</v>
-      </c>
+      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2991,9 +2907,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>1.890389807891999</v>
-      </c>
+      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3011,9 +2925,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>23.52504669597564</v>
-      </c>
+      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3031,9 +2943,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>1.478133316702131</v>
-      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3051,9 +2961,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>0.7381857684126257</v>
-      </c>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3071,9 +2979,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>15.72388540115199</v>
-      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3091,9 +2997,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>53.74309514421754</v>
-      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3111,9 +3015,7 @@
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>97.09873613435192</v>
-      </c>
+      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3131,9 +3033,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>1.887101432175069</v>
-      </c>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3151,9 +3051,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>23.96461122363827</v>
-      </c>
+      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3171,9 +3069,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>1.569956251837383</v>
-      </c>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3191,9 +3087,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>0.823526158887913</v>
-      </c>
+      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3211,9 +3105,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>16.48103627765896</v>
-      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3231,9 +3123,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>54.95197318094198</v>
-      </c>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3251,9 +3141,7 @@
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>99.67820452513958</v>
-      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3271,9 +3159,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>1.859719526059803</v>
-      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3291,9 +3177,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>23.09398661695632</v>
-      </c>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3311,9 +3195,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>1.676710575510338</v>
-      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3331,9 +3213,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>0.8383552877551691</v>
-      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3351,9 +3231,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>16.65904332715989</v>
-      </c>
+      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3371,9 +3249,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>53.59373543281433</v>
-      </c>
+      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3391,9 +3267,7 @@
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>97.72155076625586</v>
-      </c>
+      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3411,9 +3285,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>1.935220672901199</v>
-      </c>
+      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3431,9 +3303,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>24.15557703719865</v>
-      </c>
+      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3451,9 +3321,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>1.867591993471856</v>
-      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3471,9 +3339,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>0.9121201379444718</v>
-      </c>
+      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3491,9 +3357,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>17.95628142284222</v>
-      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3511,9 +3375,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>56.31388114020289</v>
-      </c>
+      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3531,9 +3393,7 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>103.1406724045613</v>
-      </c>
+      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3551,9 +3411,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>1.996502893091446</v>
-      </c>
+      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3571,9 +3429,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>25.07276321228929</v>
-      </c>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3591,9 +3447,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>2.041368126644063</v>
-      </c>
+      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3611,9 +3465,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>0.9853095522516988</v>
-      </c>
+      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3631,9 +3483,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>19.39040882425979</v>
-      </c>
+      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3651,9 +3501,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>58.63195790964662</v>
-      </c>
+      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3671,9 +3519,7 @@
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>108.1183105181829</v>
-      </c>
+      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3691,9 +3537,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>1.99918668826086</v>
-      </c>
+      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3711,9 +3555,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>25.30585624126762</v>
-      </c>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3731,9 +3573,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>2.110825120165461</v>
-      </c>
+      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3751,9 +3591,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>1.006463401478406</v>
-      </c>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3771,9 +3609,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>20.31647709230044</v>
-      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3791,9 +3627,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>60.3946741460523</v>
-      </c>
+      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3811,9 +3645,7 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>111.1334826895251</v>
-      </c>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">

--- a/Data/t18.2.xlsx
+++ b/Data/t18.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,7 +2138,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2148,15 +2148,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2.657975652851144</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2166,15 +2168,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>38.88242606860935</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2184,15 +2188,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>3.28594881521677</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2202,15 +2208,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1.612425603440635</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2220,15 +2228,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>25.31600073504557</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2238,15 +2248,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>79.83849577651529</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2256,10 +2268,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>151.5932726516787</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2274,10 +2288,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1.537935231570589</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2292,10 +2308,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20.90425708125331</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2310,10 +2328,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9967423834942085</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2328,10 +2348,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.3863060060343185</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2346,10 +2368,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>11.75500021192164</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2364,10 +2388,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>45.04109366583153</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2382,10 +2408,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>80.6213345801056</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2400,10 +2428,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1.683319449420817</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2418,10 +2448,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>21.42653658708413</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2436,10 +2468,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1.090805498978828</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2454,10 +2488,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.4366845934450127</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2472,10 +2508,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>12.39568175832918</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2490,10 +2528,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>46.47701170898164</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2508,10 +2548,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>83.51003959623961</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2526,10 +2568,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1.828801808693998</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2544,10 +2588,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>22.12039389688297</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2562,10 +2608,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1.17295564281753</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2580,10 +2628,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.4828757485024546</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2598,10 +2648,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>12.92593514834556</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2616,10 +2668,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>48.19928786637747</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2634,10 +2688,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>86.73025011161998</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2652,10 +2708,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1.852110781158352</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2670,10 +2728,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>21.70408736488951</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2688,10 +2748,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1.232352241234957</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2706,10 +2768,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5230332186636738</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2724,10 +2788,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>13.26748989945833</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2742,10 +2808,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>48.86599054234139</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2760,10 +2828,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>87.4450640477462</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2778,10 +2848,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1.806246727959114</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2796,10 +2868,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>22.12206914647361</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2814,10 +2888,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1.287885980586232</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2832,10 +2908,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5878317753713094</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2850,10 +2928,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>13.77129531938058</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2868,10 +2948,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>49.99776445794518</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2886,10 +2968,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>89.57309340771603</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2904,10 +2988,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1.892202935079598</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2922,10 +3008,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>22.76313043998378</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2940,10 +3028,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1.408521847741836</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2958,10 +3048,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6803426283432263</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2976,10 +3068,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>14.87895154381879</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2994,10 +3088,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>51.73970254038343</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3012,10 +3108,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>93.36285193535066</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3030,10 +3128,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1.890389807891999</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3048,10 +3148,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>23.52504669597564</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3066,10 +3168,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1.478133316702131</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3084,10 +3188,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.7381857684126257</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3102,10 +3208,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>15.72388540115199</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3120,10 +3228,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>53.74309514421754</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3138,10 +3248,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>97.09873613435192</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3156,10 +3268,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1.887101432175069</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3174,10 +3288,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>23.96461122363827</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3192,10 +3308,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1.569956251837383</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3210,10 +3328,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.823526158887913</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3228,10 +3348,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>16.48103627765896</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3246,10 +3368,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>54.95197318094198</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3264,10 +3388,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>99.67820452513958</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3282,10 +3408,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1.859719526059803</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3300,10 +3428,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>23.09398661695632</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3318,10 +3448,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1.676710575510338</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3336,10 +3468,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.8383552877551691</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3354,10 +3488,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>16.65904332715989</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3372,10 +3508,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>53.59373543281433</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3390,10 +3528,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>97.72155076625586</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3408,10 +3548,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1.935220672901199</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3426,10 +3568,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>24.15557703719865</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3444,10 +3588,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1.867591993471856</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3462,10 +3608,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9121201379444718</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3480,10 +3628,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>17.95628142284222</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3498,10 +3648,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>56.31388114020289</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3516,10 +3668,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>103.1406724045613</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3534,10 +3688,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1.996502893091446</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3552,10 +3708,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>25.07276321228929</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3570,10 +3728,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>2.041368126644063</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3588,10 +3748,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0.9853095522516988</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3606,10 +3768,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>19.39040882425979</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3624,10 +3788,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>58.63195790964662</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3642,15 +3808,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>108.1183105181829</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3660,17 +3828,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1.6261454452363</v>
+        <v>1.99918668826086</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3680,17 +3848,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>17.65529340542269</v>
+        <v>25.30585624126762</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3700,17 +3868,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.8827646702711343</v>
+        <v>2.110825120165461</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3720,17 +3888,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.32522908904726</v>
+        <v>1.006463401478406</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3740,17 +3908,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>12.91624096501975</v>
+        <v>20.31647709230044</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3760,17 +3928,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>44.41700130416865</v>
+        <v>60.3946741460523</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3780,17 +3948,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>77.82267487916577</v>
+        <v>111.1334826895251</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3800,17 +3968,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1.702220063009746</v>
+        <v>2.956356349106119</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3820,17 +3988,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>17.52826605423549</v>
+        <v>28.62826741069042</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3840,17 +4008,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.874113005329329</v>
+        <v>2.375002295493579</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3860,17 +4028,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.3680475811912964</v>
+        <v>1.061826080274667</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3880,17 +4048,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>13.11169507993993</v>
+        <v>21.37673052430578</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3900,17 +4068,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>45.17784059123164</v>
+        <v>63.33339454649545</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3920,11 +4088,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>78.76218237493744</v>
+        <v>119.731577206366</v>
       </c>
     </row>
     <row r="184">
@@ -3940,11 +4108,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1.731195458800965</v>
+        <v>1.6261454452363</v>
       </c>
     </row>
     <row r="185">
@@ -3960,11 +4128,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>17.94976344125211</v>
+        <v>17.65529340542269</v>
       </c>
     </row>
     <row r="186">
@@ -3980,11 +4148,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.8655977294004824</v>
+        <v>0.8827646702711343</v>
       </c>
     </row>
     <row r="187">
@@ -4000,11 +4168,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.410019977084439</v>
+        <v>0.32522908904726</v>
       </c>
     </row>
     <row r="188">
@@ -4020,11 +4188,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>13.30287036762847</v>
+        <v>12.91624096501975</v>
       </c>
     </row>
     <row r="189">
@@ -4040,11 +4208,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>46.10446853438359</v>
+        <v>44.41700130416865</v>
       </c>
     </row>
     <row r="190">
@@ -4060,11 +4228,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>80.36391550855005</v>
+        <v>77.82267487916577</v>
       </c>
     </row>
     <row r="191">
@@ -4080,11 +4248,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1.714293190150754</v>
+        <v>1.702220063009746</v>
       </c>
     </row>
     <row r="192">
@@ -4100,11 +4268,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>17.90985253920656</v>
+        <v>17.52826605423549</v>
       </c>
     </row>
     <row r="193">
@@ -4120,11 +4288,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.9473725524517325</v>
+        <v>0.874113005329329</v>
       </c>
     </row>
     <row r="194">
@@ -4140,11 +4308,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.4962427655699551</v>
+        <v>0.3680475811912964</v>
       </c>
     </row>
     <row r="195">
@@ -4160,11 +4328,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>13.30832871301243</v>
+        <v>13.11169507993993</v>
       </c>
     </row>
     <row r="196">
@@ -4180,11 +4348,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>45.87989932587676</v>
+        <v>45.17784059123164</v>
       </c>
     </row>
     <row r="197">
@@ -4200,11 +4368,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>80.2559890862682</v>
+        <v>78.76218237493744</v>
       </c>
     </row>
     <row r="198">
@@ -4220,11 +4388,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1.743303479633745</v>
+        <v>1.731195458800965</v>
       </c>
     </row>
     <row r="199">
@@ -4240,11 +4408,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>18.01413595621537</v>
+        <v>17.94976344125211</v>
       </c>
     </row>
     <row r="200">
@@ -4260,11 +4428,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.9387018736489398</v>
+        <v>0.8655977294004824</v>
       </c>
     </row>
     <row r="201">
@@ -4280,11 +4448,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.4917009814351589</v>
+        <v>0.410019977084439</v>
       </c>
     </row>
     <row r="202">
@@ -4300,11 +4468,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>13.41002676641343</v>
+        <v>13.30287036762847</v>
       </c>
     </row>
     <row r="203">
@@ -4320,11 +4488,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>46.17519216568356</v>
+        <v>46.10446853438359</v>
       </c>
     </row>
     <row r="204">
@@ -4340,11 +4508,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>80.7730612230302</v>
+        <v>80.36391550855005</v>
       </c>
     </row>
     <row r="205">
@@ -4360,11 +4528,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1.594849698706311</v>
+        <v>1.714293190150754</v>
       </c>
     </row>
     <row r="206">
@@ -4380,11 +4548,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>17.80915496888714</v>
+        <v>17.90985253920656</v>
       </c>
     </row>
     <row r="207">
@@ -4400,11 +4568,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.9303289909120148</v>
+        <v>0.9473725524517325</v>
       </c>
     </row>
     <row r="208">
@@ -4420,11 +4588,11 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.4873151857158173</v>
+        <v>0.4962427655699551</v>
       </c>
     </row>
     <row r="209">
@@ -4440,11 +4608,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13.42331829744479</v>
+        <v>13.30832871301243</v>
       </c>
     </row>
     <row r="210">
@@ -4460,11 +4628,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>46.95946335079694</v>
+        <v>45.87989932587676</v>
       </c>
     </row>
     <row r="211">
@@ -4480,11 +4648,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81.204430492463</v>
+        <v>80.2559890862682</v>
       </c>
     </row>
     <row r="212">
@@ -4500,11 +4668,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1.667904427320626</v>
+        <v>1.743303479633745</v>
       </c>
     </row>
     <row r="213">
@@ -4520,11 +4688,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>18.1713798134405</v>
+        <v>18.01413595621537</v>
       </c>
     </row>
     <row r="214">
@@ -4540,11 +4708,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1.05341332251829</v>
+        <v>0.9387018736489398</v>
       </c>
     </row>
     <row r="215">
@@ -4560,11 +4728,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.5705988830307404</v>
+        <v>0.4917009814351589</v>
       </c>
     </row>
     <row r="216">
@@ -4580,11 +4748,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>13.69437319273777</v>
+        <v>13.41002676641343</v>
       </c>
     </row>
     <row r="217">
@@ -4600,11 +4768,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>48.10587506166857</v>
+        <v>46.17519216568356</v>
       </c>
     </row>
     <row r="218">
@@ -4620,11 +4788,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>83.26354470071649</v>
+        <v>80.7730612230302</v>
       </c>
     </row>
     <row r="219">
@@ -4640,11 +4808,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1.696462050143938</v>
+        <v>1.594849698706311</v>
       </c>
     </row>
     <row r="220">
@@ -4660,11 +4828,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>18.31309033616918</v>
+        <v>17.80915496888714</v>
       </c>
     </row>
     <row r="221">
@@ -4680,11 +4848,11 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1.174473727022727</v>
+        <v>0.9303289909120148</v>
       </c>
     </row>
     <row r="222">
@@ -4700,11 +4868,11 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.6524854039015148</v>
+        <v>0.4873151857158173</v>
       </c>
     </row>
     <row r="223">
@@ -4720,11 +4888,11 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>14.9201662358813</v>
+        <v>13.42331829744479</v>
       </c>
     </row>
     <row r="224">
@@ -4740,11 +4908,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>46.41346173086108</v>
+        <v>46.95946335079694</v>
       </c>
     </row>
     <row r="225">
@@ -4760,11 +4928,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>83.17013948397974</v>
+        <v>81.204430492463</v>
       </c>
     </row>
     <row r="226">
@@ -4780,11 +4948,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1.724857613004046</v>
+        <v>1.667904427320626</v>
       </c>
     </row>
     <row r="227">
@@ -4800,11 +4968,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>18.4559764591433</v>
+        <v>18.1713798134405</v>
       </c>
     </row>
     <row r="228">
@@ -4820,11 +4988,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1.250521769427934</v>
+        <v>1.05341332251829</v>
       </c>
     </row>
     <row r="229">
@@ -4840,11 +5008,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.6037001645514163</v>
+        <v>0.5705988830307404</v>
       </c>
     </row>
     <row r="230">
@@ -4860,11 +5028,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15.95493292028743</v>
+        <v>13.69437319273777</v>
       </c>
     </row>
     <row r="231">
@@ -4880,11 +5048,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>47.34734147696108</v>
+        <v>48.10587506166857</v>
       </c>
     </row>
     <row r="232">
@@ -4900,11 +5068,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>85.3373304033752</v>
+        <v>83.26354470071649</v>
       </c>
     </row>
     <row r="233">
@@ -4920,11 +5088,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1.66760166383887</v>
+        <v>1.696462050143938</v>
       </c>
     </row>
     <row r="234">
@@ -4940,11 +5108,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>18.38637731924908</v>
+        <v>18.31309033616918</v>
       </c>
     </row>
     <row r="235">
@@ -4960,11 +5128,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1.325529527666794</v>
+        <v>1.174473727022727</v>
       </c>
     </row>
     <row r="236">
@@ -4980,11 +5148,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.7696623063871709</v>
+        <v>0.6524854039015148</v>
       </c>
     </row>
     <row r="237">
@@ -5000,11 +5168,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>16.6760166383887</v>
+        <v>14.9201662358813</v>
       </c>
     </row>
     <row r="238">
@@ -5020,11 +5188,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>48.10389414919818</v>
+        <v>46.41346173086108</v>
       </c>
     </row>
     <row r="239">
@@ -5040,11 +5208,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>86.92908160472879</v>
+        <v>83.17013948397974</v>
       </c>
     </row>
     <row r="240">
@@ -5060,11 +5228,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1.654056254877345</v>
+        <v>1.724857613004046</v>
       </c>
     </row>
     <row r="241">
@@ -5080,11 +5248,11 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>18.15220710480779</v>
+        <v>18.4559764591433</v>
       </c>
     </row>
     <row r="242">
@@ -5100,11 +5268,11 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1.48440945950531</v>
+        <v>1.250521769427934</v>
       </c>
     </row>
     <row r="243">
@@ -5120,11 +5288,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.7634105791741594</v>
+        <v>0.6037001645514163</v>
       </c>
     </row>
     <row r="244">
@@ -5140,11 +5308,11 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>17.26156142910461</v>
+        <v>15.95493292028743</v>
       </c>
     </row>
     <row r="245">
@@ -5160,11 +5328,11 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>48.26451328334408</v>
+        <v>47.34734147696108</v>
       </c>
     </row>
     <row r="246">
@@ -5180,11 +5348,11 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>87.58015811081329</v>
+        <v>85.3373304033752</v>
       </c>
     </row>
     <row r="247">
@@ -5200,11 +5368,11 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1.809423900469903</v>
+        <v>1.66760166383887</v>
       </c>
     </row>
     <row r="248">
@@ -5220,11 +5388,11 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>18.72543338858388</v>
+        <v>18.38637731924908</v>
       </c>
     </row>
     <row r="249">
@@ -5240,11 +5408,11 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1.430707270138993</v>
+        <v>1.325529527666794</v>
       </c>
     </row>
     <row r="250">
@@ -5260,11 +5428,11 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.7574332606618199</v>
+        <v>0.7696623063871709</v>
       </c>
     </row>
     <row r="251">
@@ -5280,11 +5448,11 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>18.220477881476</v>
+        <v>16.6760166383887</v>
       </c>
     </row>
     <row r="252">
@@ -5300,11 +5468,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>48.72820643591042</v>
+        <v>48.10389414919818</v>
       </c>
     </row>
     <row r="253">
@@ -5320,11 +5488,431 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>86.92908160472879</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Mamógrafo</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1.654056254877345</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Raio X</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>18.15220710480779</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Tomógrafo Computadorizado</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1.48440945950531</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Ressonância Magnética</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.7634105791741594</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Ultrassom</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>17.26156142910461</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Equipo Odontológico Completo</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>48.26451328334408</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>87.58015811081329</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Mamógrafo</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D261" t="n">
+        <v>1.809423900469903</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Raio X</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>18.72543338858388</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Tomógrafo Computadorizado</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>1.430707270138993</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Ressonância Magnética</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7574332606618199</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Ultrassom</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>18.220477881476</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Equipo Odontológico Completo</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>48.72820643591042</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
         <v>89.67168213724102</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Mamógrafo</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1.879319302196214</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Raio X</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>18.79319302196214</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Tomógrafo Computadorizado</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>1.41993013943714</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Ressonância Magnética</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7934903720384017</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Ultrassom</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>18.91848097544189</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Equipo Odontológico Completo</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>49.07111511290115</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>90.87552892397694</v>
       </c>
     </row>
   </sheetData>
